--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject43.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject43.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -230,7 +230,7 @@
         <v>0</v>
       </c>
       <c r="AI1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1" s="0">
         <v>0</v>
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>0</v>
+        <v>0.77204701879322601</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -284,22 +284,22 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0</v>
+        <v>0.94825683812880301</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
       </c>
       <c r="BC1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD1" s="0">
         <v>0</v>
       </c>
       <c r="BE1" s="0">
-        <v>0</v>
+        <v>0.59662798761015035</v>
       </c>
       <c r="BF1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="0">
         <v>0</v>
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="0">
-        <v>0</v>
+        <v>0.92796070053328772</v>
       </c>
       <c r="BF2" s="0">
         <v>0</v>
@@ -520,10 +520,10 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0</v>
+        <v>0.93848778127223564</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.61831048933778876</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.65304348132416301</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="0">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0</v>
+        <v>0.73590540600518961</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="0">
-        <v>0</v>
+        <v>0.82205794333741156</v>
       </c>
       <c r="BH3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.51666655753681767</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>0.65518477103860451</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>0</v>
+        <v>0.98876918415699566</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0</v>
+        <v>0.54490560377148212</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="0">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="0">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="0">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>0</v>
+        <v>0.81804442775129815</v>
       </c>
       <c r="R5" s="0">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="0">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="BD5" s="0">
-        <v>0</v>
+        <v>0.50245655315673998</v>
       </c>
       <c r="BE5" s="0">
         <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>0</v>
+        <v>0.75739326135414498</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0</v>
+        <v>0.57587543956986353</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.74332417222778224</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>1</v>
+        <v>0.58235449560073116</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="AD6" s="0">
-        <v>0</v>
+        <v>0.6864514300851996</v>
       </c>
       <c r="AE6" s="0">
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>0</v>
+        <v>0.61553415823493318</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="0">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="0">
-        <v>0</v>
+        <v>0.81261525351962327</v>
       </c>
       <c r="BG6" s="0">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.89359195201039676</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="0">
-        <v>0</v>
+        <v>0.81755918788411119</v>
       </c>
       <c r="Q7" s="0">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="0">
-        <v>0</v>
+        <v>0.88913603797515806</v>
       </c>
       <c r="AH7" s="0">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="BB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="0">
-        <v>0</v>
+        <v>0.8637685516924456</v>
       </c>
       <c r="BD7" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1693,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>0</v>
+        <v>0.61567134584442496</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>0</v>
+        <v>0.93746267050973198</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -1720,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>0</v>
+        <v>0.86971259556961034</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="0">
-        <v>0</v>
+        <v>0.87962730787233112</v>
       </c>
       <c r="BE8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.79558267853746478</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1851,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>0</v>
+        <v>0.58479614719790696</v>
       </c>
       <c r="AA9" s="0">
-        <v>0</v>
+        <v>0.6507291627299906</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="0">
-        <v>0</v>
+        <v>0.91364110686997624</v>
       </c>
       <c r="AI9" s="0">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="0">
-        <v>0</v>
+        <v>0.86319250866528541</v>
       </c>
       <c r="AR9" s="0">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.76476851821243907</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0</v>
+        <v>0.64633864943796038</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2075,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>0</v>
+        <v>0.58770961340089356</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AM10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="0">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="0">
-        <v>0</v>
+        <v>0.75793903886626146</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.99963404493445185</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>0</v>
+        <v>0.95698714821638187</v>
       </c>
       <c r="AA11" s="0">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0</v>
+        <v>0.60924799241838101</v>
       </c>
       <c r="BN11" s="0">
-        <v>1</v>
+        <v>0.91741930730819177</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>0.55342640654781383</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2424,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
       </c>
       <c r="O12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="0">
-        <v>0</v>
+        <v>0.90791688908958235</v>
       </c>
       <c r="V12" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="0">
-        <v>0</v>
+        <v>0.66219281514313622</v>
       </c>
       <c r="AF12" s="0">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>0</v>
+        <v>0.73568687427423018</v>
       </c>
       <c r="AM12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="0">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="0">
-        <v>0</v>
+        <v>0.53526082341320591</v>
       </c>
       <c r="AQ12" s="0">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="0">
-        <v>0</v>
+        <v>0.60229151843559836</v>
       </c>
       <c r="AY12" s="0">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.83064659876341129</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2738,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
       </c>
       <c r="AW13" s="0">
-        <v>0</v>
+        <v>0.81871459537176094</v>
       </c>
       <c r="AX13" s="0">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="0">
-        <v>0</v>
+        <v>0.60634150291596201</v>
       </c>
       <c r="BK13" s="0">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2860,13 +2860,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>0</v>
+        <v>0.85877850391074695</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>0</v>
+        <v>0.9741061276899432</v>
       </c>
       <c r="AX14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>0.52807373150603432</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3045,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.50916679766863726</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>0</v>
+        <v>0.74350119002308279</v>
       </c>
       <c r="AE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>0</v>
+        <v>0.70857681068002087</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="0">
         <v>0</v>
@@ -3290,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0">
-        <v>0</v>
+        <v>0.76386591261130865</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
       </c>
       <c r="AA16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="0">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="0">
-        <v>0</v>
+        <v>0.97657852131324807</v>
       </c>
       <c r="AJ16" s="0">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="AL16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="0">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>0</v>
+        <v>0.57083737348937102</v>
       </c>
       <c r="BN16" s="0">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>0.94674508219734466</v>
       </c>
       <c r="F17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.80872008742930757</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="0">
         <v>0</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>0</v>
+        <v>0.85012154853375921</v>
       </c>
       <c r="AN17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="0">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="AR17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="0">
         <v>0</v>
       </c>
       <c r="AT17" s="0">
-        <v>0</v>
+        <v>0.51064186385244814</v>
       </c>
       <c r="AU17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0">
-        <v>0</v>
+        <v>0.96893932239349079</v>
       </c>
       <c r="Y18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3723,16 +3723,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="0">
         <v>0</v>
       </c>
       <c r="AH18" s="0">
-        <v>0</v>
+        <v>0.92148917512100947</v>
       </c>
       <c r="AI18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="0">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="0">
-        <v>1</v>
+        <v>0.93778995220522232</v>
       </c>
       <c r="BJ18" s="0">
         <v>0</v>
@@ -3875,31 +3875,31 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
       </c>
       <c r="P19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.85769361861842408</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.63250669595132969</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>0</v>
+        <v>0.83548864486019792</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -4037,12 +4037,12 @@
         <v>0</v>
       </c>
       <c r="BP19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.5942875708083174</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.73595128299014934</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.56534446065023225</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="0">
         <v>0</v>
@@ -4254,16 +4254,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
+        <v>0.61805998820022645</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>1</v>
+        <v>0.75472400271803242</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4275,19 +4275,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0</v>
+        <v>0.57171565239672395</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
       </c>
       <c r="L21" s="0">
-        <v>0</v>
+        <v>0.79798730358996328</v>
       </c>
       <c r="M21" s="0">
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0</v>
+        <v>0.64454642875937729</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.51980734173794951</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="0">
-        <v>0</v>
+        <v>0.9014500478087738</v>
       </c>
       <c r="AR21" s="0">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AT21" s="0">
-        <v>0</v>
+        <v>0.97158990806605727</v>
       </c>
       <c r="AU21" s="0">
         <v>0</v>
@@ -4425,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>0</v>
+        <v>0.87764944312677784</v>
       </c>
       <c r="BI21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="BL21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="0">
         <v>0</v>
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.88477388592362605</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.56368331168596675</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0</v>
+        <v>0.77177296262157902</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="0">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="0">
-        <v>0</v>
+        <v>0.85440799684556845</v>
       </c>
       <c r="AL22" s="0">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="BB22" s="0">
-        <v>1</v>
+        <v>0.71251926568409751</v>
       </c>
       <c r="BC22" s="0">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.98286666999799865</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.61891807329050486</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="0">
-        <v>0</v>
+        <v>0.83955867408072804</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="BE23" s="0">
-        <v>0</v>
+        <v>0.81928921049911119</v>
       </c>
       <c r="BF23" s="0">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BH23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="0">
-        <v>0</v>
+        <v>0.79640435894264339</v>
       </c>
       <c r="S24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.74737458944996082</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.93817839443504325</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AW24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5040,10 +5040,10 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0</v>
+        <v>0.50491300793656602</v>
       </c>
       <c r="BH24" s="0">
-        <v>0</v>
+        <v>0.72031193255310377</v>
       </c>
       <c r="BI24" s="0">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="0">
-        <v>0</v>
+        <v>0.98374777364116817</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="AU25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV25" s="0">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AY25" s="0">
-        <v>0</v>
+        <v>0.87591123820896799</v>
       </c>
       <c r="AZ25" s="0">
         <v>0</v>
@@ -5249,10 +5249,10 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>0</v>
+        <v>0.95061406965925421</v>
       </c>
       <c r="BI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="0">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -5302,16 +5302,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>0</v>
+        <v>0.74343287628706256</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>0</v>
+        <v>0.80576043635112349</v>
       </c>
       <c r="L26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.60402034208826805</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5356,13 +5356,13 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
       </c>
       <c r="AC26" s="0">
-        <v>0</v>
+        <v>0.96027134859073549</v>
       </c>
       <c r="AD26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>0</v>
+        <v>0.90146335895918406</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="AT26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="0">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL26" s="0">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="0">
-        <v>0</v>
+        <v>0.97379899406761816</v>
       </c>
       <c r="J27" s="0">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
@@ -5556,22 +5556,22 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.82582123249017936</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.53812125110812881</v>
       </c>
       <c r="AD27" s="0">
-        <v>0</v>
+        <v>0.8192266641628152</v>
       </c>
       <c r="AE27" s="0">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="0">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="0">
-        <v>0</v>
+        <v>0.87296214794959792</v>
       </c>
       <c r="AP27" s="0">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="0">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.53707659957543086</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5813,19 +5813,19 @@
         <v>0</v>
       </c>
       <c r="AP28" s="0">
-        <v>0</v>
+        <v>0.70070723270434565</v>
       </c>
       <c r="AQ28" s="0">
-        <v>0</v>
+        <v>0.80968608466024716</v>
       </c>
       <c r="AR28" s="0">
         <v>0</v>
       </c>
       <c r="AS28" s="0">
-        <v>0</v>
+        <v>0.84682661959966077</v>
       </c>
       <c r="AT28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5947,10 +5947,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0</v>
+        <v>0.96420454327134619</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5971,10 +5971,10 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>0</v>
+        <v>0.76327649615480198</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.83418729747969089</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>0</v>
+        <v>0.94147617986203025</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="0">
-        <v>0</v>
+        <v>0.55060289212772462</v>
       </c>
       <c r="G30" s="0">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="M30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="0">
         <v>0</v>
       </c>
       <c r="O30" s="0">
-        <v>0</v>
+        <v>0.97088870389975845</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0</v>
+        <v>0.9114335807857733</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>0</v>
+        <v>0.71794629742561211</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.88041433195256924</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="0">
-        <v>0</v>
+        <v>0.77776951892419754</v>
       </c>
       <c r="M31" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.58771625662916094</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6419,19 +6419,19 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0</v>
+        <v>0.906008724138055</v>
       </c>
       <c r="AN31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
       </c>
       <c r="AP31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0</v>
+        <v>0.87922494330213952</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>0</v>
+        <v>0.56599364871928159</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0</v>
+        <v>0.77255822965843479</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6652,13 +6652,13 @@
         <v>0</v>
       </c>
       <c r="AU32" s="0">
-        <v>0</v>
+        <v>0.7739687553748974</v>
       </c>
       <c r="AV32" s="0">
         <v>0</v>
       </c>
       <c r="AW32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX32" s="0">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>0</v>
+        <v>0.96973425659115986</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>0</v>
+        <v>0.6022921689935864</v>
       </c>
       <c r="H33" s="0">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="0">
-        <v>0</v>
+        <v>0.70149553643529416</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="BH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI33" s="0">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="0">
-        <v>0</v>
+        <v>0.56754684935210375</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -6974,10 +6974,10 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="0">
-        <v>0</v>
+        <v>0.66275115125244155</v>
       </c>
       <c r="S34" s="0">
         <v>0</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="0">
         <v>0</v>
@@ -7031,10 +7031,10 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
-        <v>0</v>
+        <v>0.62337801854139241</v>
       </c>
       <c r="AL34" s="0">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AT34" s="0">
-        <v>0</v>
+        <v>0.59889648604301216</v>
       </c>
       <c r="AU34" s="0">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC34" s="0">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI34" s="0">
         <v>0</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="0">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7177,13 +7177,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="0">
-        <v>0</v>
+        <v>0.97484652179286702</v>
       </c>
       <c r="Q35" s="0">
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>0</v>
+        <v>0.82803853216416567</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.56542025572835364</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="0">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="BG35" s="0">
-        <v>0</v>
+        <v>0.67769588656690982</v>
       </c>
       <c r="BH35" s="0">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK35" s="0">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.87424876514818517</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="0">
-        <v>0</v>
+        <v>0.77280073216705225</v>
       </c>
       <c r="AT36" s="0">
         <v>0</v>
@@ -7503,10 +7503,10 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="0">
-        <v>0</v>
+        <v>0.80599874264923776</v>
       </c>
       <c r="W37" s="0">
         <v>0</v>
@@ -7637,28 +7637,28 @@
         <v>0</v>
       </c>
       <c r="AF37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>0</v>
+        <v>0.82412114925553337</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.92759347232146361</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.9971358011446747</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0</v>
+        <v>0.90278474575587686</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>0</v>
+        <v>0.69097459104802716</v>
       </c>
       <c r="M38" s="0">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="0">
         <v>0</v>
@@ -7840,13 +7840,13 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7879,13 +7879,13 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>0</v>
+        <v>0.89845604461164408</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>0</v>
+        <v>0.93598950434121897</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
@@ -7921,10 +7921,10 @@
         <v>0</v>
       </c>
       <c r="BF38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.79563803679004963</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -7956,10 +7956,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0</v>
+        <v>0.75295373931339871</v>
       </c>
       <c r="B39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -7983,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="0">
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8001,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0</v>
+        <v>0.59606777710272474</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>0</v>
+        <v>0.88864111478962382</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>0</v>
+        <v>0.59203951783711861</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>0</v>
+        <v>0.8657474703057555</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="0">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="BK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL39" s="0">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>0.58040057066920192</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.89065536383570709</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.61113177736280755</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="AV40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8440,13 +8440,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
       </c>
       <c r="AA41" s="0">
-        <v>0</v>
+        <v>0.84422802808367448</v>
       </c>
       <c r="AB41" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.74253710122948102</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0</v>
+        <v>0.79441931088027851</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0</v>
+        <v>0.53695313406752243</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8607,13 +8607,13 @@
         <v>0</v>
       </c>
       <c r="L42" s="0">
-        <v>0</v>
+        <v>0.96986740233655189</v>
       </c>
       <c r="M42" s="0">
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="0">
-        <v>0</v>
+        <v>0.57668791674314668</v>
       </c>
       <c r="AC42" s="0">
         <v>0</v>
@@ -8664,16 +8664,16 @@
         <v>0</v>
       </c>
       <c r="AE42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0</v>
+        <v>0.64891948362184204</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.98096925509747224</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="0">
-        <v>0</v>
+        <v>0.61863215916179826</v>
       </c>
       <c r="J43" s="0">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="0">
-        <v>0</v>
+        <v>0.5094074340837409</v>
       </c>
       <c r="V43" s="0">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0">
-        <v>0</v>
+        <v>0.7976113779267936</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="0">
         <v>0</v>
@@ -8921,16 +8921,16 @@
         <v>0</v>
       </c>
       <c r="AV43" s="0">
-        <v>0</v>
+        <v>0.69537254506232782</v>
       </c>
       <c r="AW43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>0</v>
+        <v>0.79377681740287054</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="BL43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM43" s="0">
         <v>0</v>
@@ -9001,19 +9001,19 @@
         <v>0</v>
       </c>
       <c r="F44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>0</v>
+        <v>0.81478726868402451</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>0</v>
+        <v>0.72090770145464422</v>
       </c>
       <c r="K44" s="0">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="0">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>0</v>
+        <v>0.97821066709211379</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="0">
-        <v>0</v>
+        <v>0.71549926925853158</v>
       </c>
       <c r="AX44" s="0">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -9270,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>0</v>
+        <v>0.77780881805113755</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
@@ -9297,10 +9297,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0</v>
+        <v>0.66431015760514989</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>0.89358944740034951</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>1</v>
+        <v>0.98571833090996974</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0</v>
+        <v>0.95083515541104102</v>
       </c>
       <c r="R46" s="0">
         <v>0</v>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="0">
-        <v>0</v>
+        <v>0.97810096343042385</v>
       </c>
       <c r="V46" s="0">
         <v>0</v>
@@ -9473,13 +9473,13 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="0">
         <v>0</v>
       </c>
       <c r="AB46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="0">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AH46" s="0">
-        <v>0</v>
+        <v>0.57061798303096412</v>
       </c>
       <c r="AI46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>0</v>
+        <v>0.54476962790647421</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>1</v>
+        <v>0.50855406079731424</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="BG46" s="0">
-        <v>0</v>
+        <v>0.93763796931202059</v>
       </c>
       <c r="BH46" s="0">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO46" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="0">
-        <v>0</v>
+        <v>0.55189165348887037</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>0</v>
+        <v>0.96046063137089055</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
@@ -9766,10 +9766,10 @@
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD47" s="0">
-        <v>0</v>
+        <v>0.94956728574409244</v>
       </c>
       <c r="BE47" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>0</v>
+        <v>0.84599952585384963</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="0">
         <v>0</v>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="AN48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO48" s="0">
         <v>0</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="0">
-        <v>0</v>
+        <v>0.66925273046528699</v>
       </c>
       <c r="AR48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.99518315528541312</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -9990,10 +9990,10 @@
         <v>0</v>
       </c>
       <c r="BI48" s="0">
-        <v>0</v>
+        <v>0.95440502748421574</v>
       </c>
       <c r="BJ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK48" s="0">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP48" s="0">
         <v>0</v>
@@ -10052,10 +10052,10 @@
         <v>0</v>
       </c>
       <c r="M49" s="0">
-        <v>0</v>
+        <v>0.89972088699944663</v>
       </c>
       <c r="N49" s="0">
-        <v>0</v>
+        <v>0.54472345256359422</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="0">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="0">
         <v>0</v>
@@ -10142,16 +10142,16 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="0">
-        <v>0</v>
+        <v>0.53056604385997019</v>
       </c>
       <c r="AS49" s="0">
         <v>0</v>
       </c>
       <c r="AT49" s="0">
-        <v>1</v>
+        <v>0.80419017149395156</v>
       </c>
       <c r="AU49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10181,13 +10181,13 @@
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>0</v>
+        <v>0.92576107359726856</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0</v>
+        <v>0.51276658081401327</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10255,13 +10255,13 @@
         <v>0</v>
       </c>
       <c r="L50" s="0">
-        <v>0</v>
+        <v>0.68226150584156198</v>
       </c>
       <c r="M50" s="0">
         <v>0</v>
       </c>
       <c r="N50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.66178230037173957</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.53736805185336434</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>0</v>
+        <v>0.65481945478929904</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="BL50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM50" s="0">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>0</v>
+        <v>0.84801014880485115</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="0">
-        <v>0</v>
+        <v>0.73690382440761204</v>
       </c>
       <c r="Z51" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>0</v>
+        <v>0.51354976931645235</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10572,16 +10572,16 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.5026228025138928</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>0</v>
+        <v>0.6312419894563871</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>0</v>
+        <v>0.79783710830789434</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0</v>
+        <v>0.66430647642152341</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.64922249735835857</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10808,10 +10808,10 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>0</v>
+        <v>0.57135308123572681</v>
       </c>
       <c r="BH52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI52" s="0">
         <v>0</v>
@@ -10840,13 +10840,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0</v>
+        <v>0.60431618528388764</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.63977417835333172</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="BL53" s="0">
-        <v>0</v>
+        <v>0.68521221913017671</v>
       </c>
       <c r="BM53" s="0">
         <v>0</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="0">
-        <v>1</v>
+        <v>0.83487906315406324</v>
       </c>
       <c r="W54" s="0">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.90736234154555961</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.65410475353242337</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>0</v>
+        <v>0.79076835124792866</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11252,7 +11252,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -11270,13 +11270,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="0">
-        <v>0</v>
+        <v>0.52356058168742325</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
       </c>
       <c r="I55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>0</v>
+        <v>0.65511462987679869</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>0</v>
+        <v>0.77311626856949922</v>
       </c>
       <c r="BL55" s="0">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>0</v>
+        <v>0.77301412958671101</v>
       </c>
     </row>
     <row r="56">
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="0">
-        <v>0</v>
+        <v>0.68126087412089043</v>
       </c>
       <c r="F56" s="0">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>0</v>
+        <v>0.56772334727681661</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="0">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11596,13 +11596,13 @@
         <v>0</v>
       </c>
       <c r="AU56" s="0">
-        <v>0</v>
+        <v>0.8727454070749433</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>0</v>
+        <v>0.59111188659472291</v>
       </c>
       <c r="AX56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="0">
-        <v>0</v>
+        <v>0.85090475066042626</v>
       </c>
       <c r="BJ56" s="0">
         <v>0</v>
@@ -11664,16 +11664,16 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0</v>
+        <v>0.66281595854511</v>
       </c>
       <c r="B57" s="0">
-        <v>0</v>
+        <v>0.90273441770082319</v>
       </c>
       <c r="C57" s="0">
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0</v>
+        <v>0.7308636911098334</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="0">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>0</v>
+        <v>0.51602203086543996</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11865,12 +11865,12 @@
         <v>0</v>
       </c>
       <c r="BP57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -11882,10 +11882,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0</v>
+        <v>0.83982828501328533</v>
       </c>
       <c r="F58" s="0">
-        <v>0</v>
+        <v>0.61857445781404097</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="0">
         <v>0</v>
@@ -12011,10 +12011,10 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="0">
-        <v>0</v>
+        <v>0.72666537229094708</v>
       </c>
       <c r="AX58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>0</v>
+        <v>0.78707019128805422</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>0</v>
+        <v>0.71345579535571868</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>0</v>
+        <v>0.76180967137457833</v>
       </c>
       <c r="AJ59" s="0">
         <v>0</v>
@@ -12187,10 +12187,10 @@
         <v>0</v>
       </c>
       <c r="AL59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>0</v>
+        <v>0.55519471830571243</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0</v>
+        <v>0.65728406790301774</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12342,19 +12342,19 @@
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>0</v>
+        <v>0.54918595366173029</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
       </c>
       <c r="W60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>0</v>
+        <v>0.68943924134560741</v>
       </c>
       <c r="Y60" s="0">
-        <v>0</v>
+        <v>0.54746543593028907</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12378,10 +12378,10 @@
         <v>0</v>
       </c>
       <c r="AG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12414,13 +12414,13 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>1</v>
+        <v>0.63665582989232838</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
       </c>
       <c r="AU60" s="0">
-        <v>0</v>
+        <v>0.79098262431991151</v>
       </c>
       <c r="AV60" s="0">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="AZ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="0">
         <v>0</v>
@@ -12536,10 +12536,10 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="0">
-        <v>1</v>
+        <v>0.77655579199822</v>
       </c>
       <c r="S61" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="0">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="AV61" s="0">
-        <v>0</v>
+        <v>0.64279359532986158</v>
       </c>
       <c r="AW61" s="0">
         <v>0</v>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="BD61" s="0">
-        <v>0</v>
+        <v>0.5800134299516938</v>
       </c>
       <c r="BE61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="0">
-        <v>0</v>
+        <v>0.55755620209724077</v>
       </c>
       <c r="N62" s="0">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="AV62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0</v>
+        <v>0.74012751188476067</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>0</v>
+        <v>0.73036604749262368</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0</v>
+        <v>0.96493453569194698</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>0</v>
+        <v>0.90175408978815796</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -13011,16 +13011,16 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.53220750774813097</v>
       </c>
       <c r="AM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="0">
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>0</v>
+        <v>0.58385441787558567</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.84349530374311832</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.57259446954038107</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" s="0">
         <v>0</v>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR64" s="0">
         <v>0</v>
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="0">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="0">
-        <v>0</v>
+        <v>0.99144926987561599</v>
       </c>
       <c r="BB64" s="0">
         <v>0</v>
@@ -13298,13 +13298,13 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
       </c>
       <c r="BO64" s="0">
-        <v>0</v>
+        <v>0.92055090714447219</v>
       </c>
       <c r="BP64" s="0">
         <v>0</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="0">
-        <v>0</v>
+        <v>0.97792002031481973</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>0</v>
+        <v>0.72115573146959433</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.78712136118136256</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>1</v>
+        <v>0.96634272826445922</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0</v>
+        <v>0.8442310971275383</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0</v>
+        <v>0.56708457687032665</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="0">
-        <v>0</v>
+        <v>0.91493552171207515</v>
       </c>
       <c r="AZ67" s="0">
         <v>0</v>
@@ -13913,10 +13913,10 @@
         <v>0</v>
       </c>
       <c r="BL67" s="0">
-        <v>0</v>
+        <v>0.98696517829904207</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.74468556446497569</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.759969748191482</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" s="0">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68" s="0">
         <v>0</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
@@ -14092,13 +14092,13 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>0</v>
+        <v>0.98797777745575588</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
       </c>
       <c r="BE68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.63236714767563074</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject43.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject43.xlsx
@@ -296,7 +296,7 @@
         <v>0</v>
       </c>
       <c r="BE1" s="0">
-        <v>0.59662798761015035</v>
+        <v>0.66281595854511</v>
       </c>
       <c r="BF1" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0.93848778127223564</v>
+        <v>0.96493453569194698</v>
       </c>
       <c r="BL2" s="0">
         <v>0.61831048933778876</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.65304348132416301</v>
+        <v>0.759969748191482</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.51666655753681767</v>
+        <v>0.74332417222778224</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0.54490560377148212</v>
+        <v>0.61805998820022645</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.81804442775129815</v>
+        <v>0.94674508219734466</v>
       </c>
       <c r="R5" s="0">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="BD5" s="0">
-        <v>0.50245655315673998</v>
+        <v>0.68126087412089043</v>
       </c>
       <c r="BE5" s="0">
         <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>0.75739326135414498</v>
+        <v>0.83982828501328533</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0.57587543956986353</v>
+        <v>0.90175408978815796</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>0.58235449560073116</v>
+        <v>0.75472400271803242</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.61553415823493318</v>
+        <v>0.87922494330213952</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.79558267853746478</v>
+        <v>0.89359195201039676</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1851,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.58479614719790696</v>
+        <v>0.74343287628706256</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.6507291627299906</v>
+        <v>0.97379899406761816</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.76476851821243907</v>
+        <v>0.99963404493445185</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>0.58770961340089356</v>
+        <v>0.70149553643529416</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0.60924799241838101</v>
+        <v>0.97792002031481973</v>
       </c>
       <c r="BN11" s="0">
-        <v>0.91741930730819177</v>
+        <v>0.96634272826445922</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>0.55342640654781383</v>
+        <v>0.65518477103860451</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="0">
-        <v>0.66219281514313622</v>
+        <v>0.77776951892419754</v>
       </c>
       <c r="AF12" s="0">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="0">
-        <v>0.53526082341320591</v>
+        <v>0.96986740233655189</v>
       </c>
       <c r="AQ12" s="0">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="0">
-        <v>0.60229151843559836</v>
+        <v>0.68226150584156198</v>
       </c>
       <c r="AY12" s="0">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AW13" s="0">
-        <v>0.81871459537176094</v>
+        <v>0.89972088699944663</v>
       </c>
       <c r="AX13" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0.52807373150603432</v>
+        <v>0.98876918415699566</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.50916679766863726</v>
+        <v>0.83064659876341129</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.74350119002308279</v>
+        <v>0.97088870389975845</v>
       </c>
       <c r="AE15" s="0">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>0.70857681068002087</v>
+        <v>0.81755918788411119</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0">
-        <v>0.76386591261130865</v>
+        <v>0.98374777364116817</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>0.57083737348937102</v>
+        <v>0.72115573146959433</v>
       </c>
       <c r="BN16" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0.80872008742930757</v>
+        <v>0.85769361861842408</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="0">
-        <v>0.51064186385244814</v>
+        <v>0.95083515541104102</v>
       </c>
       <c r="AU17" s="0">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.83548864486019792</v>
+        <v>0.96420454327134619</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0.5942875708083174</v>
+        <v>0.63250669595132969</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0.73595128299014934</v>
       </c>
       <c r="V20" s="0">
-        <v>0.56534446065023225</v>
+        <v>0.88477388592362605</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4275,19 +4275,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0.57171565239672395</v>
+        <v>0.64633864943796038</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
       </c>
       <c r="L21" s="0">
-        <v>0.79798730358996328</v>
+        <v>0.90791688908958235</v>
       </c>
       <c r="M21" s="0">
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0.64454642875937729</v>
+        <v>0.85877850391074695</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.51980734173794951</v>
+        <v>0.73595128299014934</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AT21" s="0">
-        <v>0.97158990806605727</v>
+        <v>0.97810096343042385</v>
       </c>
       <c r="AU21" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.56368331168596675</v>
+        <v>0.98286666999799865</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.77177296262157902</v>
+        <v>0.9114335807857733</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="BB22" s="0">
-        <v>0.71251926568409751</v>
+        <v>0.83487906315406324</v>
       </c>
       <c r="BC22" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.61891807329050486</v>
+        <v>0.74737458944996082</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="0">
-        <v>0.79640435894264339</v>
+        <v>0.96893932239349079</v>
       </c>
       <c r="S24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0.50491300793656602</v>
+        <v>0.71345579535571868</v>
       </c>
       <c r="BH24" s="0">
         <v>0.72031193255310377</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>0.80576043635112349</v>
+        <v>0.95698714821638187</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.60402034208826805</v>
+        <v>0.93817839443504325</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0.82582123249017936</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.53812125110812881</v>
+        <v>0.83418729747969089</v>
       </c>
       <c r="AD27" s="0">
         <v>0.8192266641628152</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.53707659957543086</v>
+        <v>0.82582123249017936</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>0.76327649615480198</v>
+        <v>0.96027134859073549</v>
       </c>
       <c r="AA29" s="0">
         <v>0.83418729747969089</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="0">
-        <v>0.55060289212772462</v>
+        <v>0.6864514300851996</v>
       </c>
       <c r="G30" s="0">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>0.71794629742561211</v>
+        <v>0.8192266641628152</v>
       </c>
       <c r="AB30" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.58771625662916094</v>
+        <v>0.88041433195256924</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>0.56599364871928159</v>
+        <v>0.90146335895918406</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>0.6022921689935864</v>
+        <v>0.88913603797515806</v>
       </c>
       <c r="H33" s="0">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="0">
-        <v>0.56754684935210375</v>
+        <v>0.91364110686997624</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="0">
-        <v>0.66275115125244155</v>
+        <v>0.92148917512100947</v>
       </c>
       <c r="S34" s="0">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="0">
-        <v>0.62337801854139241</v>
+        <v>0.82412114925553337</v>
       </c>
       <c r="AL34" s="0">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="0">
-        <v>0.97484652179286702</v>
+        <v>0.97657852131324807</v>
       </c>
       <c r="Q35" s="0">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>0.82803853216416567</v>
+        <v>0.83955867408072804</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.56542025572835364</v>
+        <v>0.92759347232146361</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="BG35" s="0">
-        <v>0.67769588656690982</v>
+        <v>0.76180967137457833</v>
       </c>
       <c r="BH35" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.87424876514818517</v>
+        <v>0.9971358011446747</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="0">
-        <v>0.80599874264923776</v>
+        <v>0.85440799684556845</v>
       </c>
       <c r="W37" s="0">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>0.69097459104802716</v>
+        <v>0.73568687427423018</v>
       </c>
       <c r="M38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>0.89845604461164408</v>
+        <v>0.97821066709211379</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.75295373931339871</v>
+        <v>0.77204701879322601</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.59606777710272474</v>
+        <v>0.85012154853375921</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>0.88864111478962382</v>
+        <v>0.906008724138055</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>0.59203951783711861</v>
+        <v>0.96046063137089055</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0.58040057066920192</v>
+        <v>0.73590540600518961</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0.89065536383570709</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.61113177736280755</v>
+        <v>0.98096925509747224</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="0">
-        <v>0.84422802808367448</v>
+        <v>0.87296214794959792</v>
       </c>
       <c r="AB41" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.74253710122948102</v>
+        <v>0.89065536383570709</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0.53695313406752243</v>
+        <v>0.61567134584442496</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="0">
-        <v>0.57668791674314668</v>
+        <v>0.70070723270434565</v>
       </c>
       <c r="AC42" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0.64891948362184204</v>
+        <v>0.77255822965843479</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="0">
-        <v>0.61863215916179826</v>
+        <v>0.86319250866528541</v>
       </c>
       <c r="J43" s="0">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="0">
-        <v>0.5094074340837409</v>
+        <v>0.9014500478087738</v>
       </c>
       <c r="V43" s="0">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0">
-        <v>0.7976113779267936</v>
+        <v>0.80968608466024716</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
@@ -9007,13 +9007,13 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>0.81478726868402451</v>
+        <v>0.93746267050973198</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>0.72090770145464422</v>
+        <v>0.75793903886626146</v>
       </c>
       <c r="K44" s="0">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>0.77780881805113755</v>
+        <v>0.84682661959966077</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
@@ -9297,10 +9297,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0.66431015760514989</v>
+        <v>0.77280073216705225</v>
       </c>
       <c r="AK45" s="0">
-        <v>0.89358944740034951</v>
+        <v>0.90278474575587686</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AH46" s="0">
-        <v>0.57061798303096412</v>
+        <v>0.59889648604301216</v>
       </c>
       <c r="AI46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>0.54476962790647421</v>
+        <v>0.93598950434121897</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>0.50855406079731424</v>
+        <v>0.80419017149395156</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="0">
-        <v>0.55189165348887037</v>
+        <v>0.7739687553748974</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="0">
-        <v>0.66925273046528699</v>
+        <v>0.69537254506232782</v>
       </c>
       <c r="AR48" s="0">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0.89972088699944663</v>
       </c>
       <c r="N49" s="0">
-        <v>0.54472345256359422</v>
+        <v>0.9741061276899432</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="AR49" s="0">
-        <v>0.53056604385997019</v>
+        <v>0.71549926925853158</v>
       </c>
       <c r="AS49" s="0">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0.51276658081401327</v>
+        <v>0.72666537229094708</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.66178230037173957</v>
+        <v>0.99518315528541312</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>0.84801014880485115</v>
+        <v>0.86971259556961034</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="0">
-        <v>0.73690382440761204</v>
+        <v>0.87591123820896799</v>
       </c>
       <c r="Z51" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>0.51354976931645235</v>
+        <v>0.79377681740287054</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.5026228025138928</v>
+        <v>0.53736805185336434</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>0.6312419894563871</v>
+        <v>0.74012751188476067</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>0.79783710830789434</v>
+        <v>0.91493552171207515</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0.66430647642152341</v>
+        <v>0.94147617986203025</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.64922249735835857</v>
+        <v>0.90736234154555961</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>0.57135308123572681</v>
+        <v>0.65728406790301774</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.60431618528388764</v>
+        <v>0.94825683812880301</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.63977417835333172</v>
+        <v>0.65410475353242337</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="BL53" s="0">
-        <v>0.68521221913017671</v>
+        <v>0.99144926987561599</v>
       </c>
       <c r="BM53" s="0">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0">
-        <v>0.52356058168742325</v>
+        <v>0.8637685516924456</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>0.65511462987679869</v>
+        <v>0.8657474703057555</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>0.77301412958671101</v>
+        <v>0.98797777745575588</v>
       </c>
     </row>
     <row r="56">
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>0.56772334727681661</v>
+        <v>0.87962730787233112</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11596,13 +11596,13 @@
         <v>0</v>
       </c>
       <c r="AU56" s="0">
-        <v>0.8727454070749433</v>
+        <v>0.94956728574409244</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>0.59111188659472291</v>
+        <v>0.92576107359726856</v>
       </c>
       <c r="AX56" s="0">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>0.66281595854511</v>
       </c>
       <c r="B57" s="0">
-        <v>0.90273441770082319</v>
+        <v>0.92796070053328772</v>
       </c>
       <c r="C57" s="0">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0.7308636911098334</v>
+        <v>0.81928921049911119</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>0.51602203086543996</v>
+        <v>0.65481945478929904</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0.83982828501328533</v>
       </c>
       <c r="F58" s="0">
-        <v>0.61857445781404097</v>
+        <v>0.81261525351962327</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>0.78707019128805422</v>
+        <v>0.82205794333741156</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>0.55519471830571243</v>
+        <v>0.93763796931202059</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>0.54918595366173029</v>
+        <v>0.87764944312677784</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12351,10 +12351,10 @@
         <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>0.68943924134560741</v>
+        <v>0.72031193255310377</v>
       </c>
       <c r="Y60" s="0">
-        <v>0.54746543593028907</v>
+        <v>0.95061406965925421</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12414,13 +12414,13 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0.63665582989232838</v>
+        <v>0.98571833090996974</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
       </c>
       <c r="AU60" s="0">
-        <v>0.79098262431991151</v>
+        <v>0.84599952585384963</v>
       </c>
       <c r="AV60" s="0">
         <v>0</v>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="0">
-        <v>0.77655579199822</v>
+        <v>0.93778995220522232</v>
       </c>
       <c r="S61" s="0">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="AV61" s="0">
-        <v>0.64279359532986158</v>
+        <v>0.95440502748421574</v>
       </c>
       <c r="AW61" s="0">
         <v>0</v>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="BD61" s="0">
-        <v>0.5800134299516938</v>
+        <v>0.85090475066042626</v>
       </c>
       <c r="BE61" s="0">
         <v>0</v>
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="0">
-        <v>0.55755620209724077</v>
+        <v>0.60634150291596201</v>
       </c>
       <c r="N62" s="0">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>0.73036604749262368</v>
+        <v>0.79076835124792866</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0.53220750774813097</v>
+        <v>0.79563803679004963</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>0.58385441787558567</v>
+        <v>0.77311626856949922</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0.57259446954038107</v>
+        <v>0.61831048933778876</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="BO64" s="0">
-        <v>0.92055090714447219</v>
+        <v>0.98696517829904207</v>
       </c>
       <c r="BP64" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.78712136118136256</v>
+        <v>0.84349530374311832</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0.8442310971275383</v>
+        <v>0.96973425659115986</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0.56708457687032665</v>
+        <v>0.79441931088027851</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.63236714767563074</v>
+        <v>0.74468556446497569</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
